--- a/Code/Results/Cases/Case_0_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_248/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05198584108250515</v>
+        <v>0.01681254295004209</v>
       </c>
       <c r="D2">
-        <v>0.04105149403918773</v>
+        <v>0.01899188952842934</v>
       </c>
       <c r="E2">
-        <v>0.212184830791287</v>
+        <v>0.1146634113283724</v>
       </c>
       <c r="F2">
-        <v>0.5183012219194936</v>
+        <v>0.6091378076441956</v>
       </c>
       <c r="G2">
-        <v>0.0007820797527529265</v>
+        <v>0.00240415971103272</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.371878823007755</v>
+        <v>0.4538774918128325</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.629026220966011</v>
+        <v>0.8380131953018974</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9163394301441556</v>
+        <v>0.3298747082999256</v>
       </c>
       <c r="N2">
-        <v>0.6886086906597271</v>
+        <v>1.07339142281571</v>
       </c>
       <c r="O2">
-        <v>1.44053696532626</v>
+        <v>2.024516934344973</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04543113433856405</v>
+        <v>0.0147254155090053</v>
       </c>
       <c r="D3">
-        <v>0.03672834058537688</v>
+        <v>0.01751924932826654</v>
       </c>
       <c r="E3">
-        <v>0.1850228942780134</v>
+        <v>0.1086312128689926</v>
       </c>
       <c r="F3">
-        <v>0.4727534275643848</v>
+        <v>0.6032880531546496</v>
       </c>
       <c r="G3">
-        <v>0.0007861804639787374</v>
+        <v>0.002406895151447619</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3404109825119335</v>
+        <v>0.4502697176569157</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.290559765483778</v>
+        <v>0.7336431570084301</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7937277240808527</v>
+        <v>0.2950121864063036</v>
       </c>
       <c r="N3">
-        <v>0.7031071942362814</v>
+        <v>1.080729859088088</v>
       </c>
       <c r="O3">
-        <v>1.337324639123665</v>
+        <v>2.018984902989047</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04140679951969872</v>
+        <v>0.01343831474956403</v>
       </c>
       <c r="D4">
-        <v>0.03406504805186472</v>
+        <v>0.0166085100554838</v>
       </c>
       <c r="E4">
-        <v>0.1688063111665556</v>
+        <v>0.1050340148368463</v>
       </c>
       <c r="F4">
-        <v>0.4458981890157219</v>
+        <v>0.6001579022374557</v>
       </c>
       <c r="G4">
-        <v>0.0007887801877983948</v>
+        <v>0.002408664694095223</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3219216347966096</v>
+        <v>0.4484003038367916</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.082890103935227</v>
+        <v>0.669418434303708</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7189681763809403</v>
+        <v>0.2736761886250108</v>
       </c>
       <c r="N4">
-        <v>0.7129695023443858</v>
+        <v>1.085675331145673</v>
       </c>
       <c r="O4">
-        <v>1.277548844875383</v>
+        <v>2.017113887164697</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03976641688746696</v>
+        <v>0.01291242623318567</v>
       </c>
       <c r="D5">
-        <v>0.032977360259828</v>
+        <v>0.01623575885282236</v>
       </c>
       <c r="E5">
-        <v>0.1623019011282096</v>
+        <v>0.1035946732239452</v>
       </c>
       <c r="F5">
-        <v>0.4352142461686697</v>
+        <v>0.5989982290491795</v>
       </c>
       <c r="G5">
-        <v>0.0007898606005437085</v>
+        <v>0.002409408489591541</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3145817198452576</v>
+        <v>0.4477252976266541</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.998272474453216</v>
+        <v>0.6432122760965058</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6886140256549922</v>
+        <v>0.2649991893264598</v>
       </c>
       <c r="N5">
-        <v>0.7172217607694904</v>
+        <v>1.087801311374797</v>
       </c>
       <c r="O5">
-        <v>1.254033873934702</v>
+        <v>2.016734348431726</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03949399220873318</v>
+        <v>0.01282501989250306</v>
       </c>
       <c r="D6">
-        <v>0.03279660306796472</v>
+        <v>0.0161737668409927</v>
       </c>
       <c r="E6">
-        <v>0.1612277938061553</v>
+        <v>0.1033572673889651</v>
       </c>
       <c r="F6">
-        <v>0.4334553205992293</v>
+        <v>0.5988126600442953</v>
       </c>
       <c r="G6">
-        <v>0.0007900412827798742</v>
+        <v>0.002409533368718176</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3133742768413939</v>
+        <v>0.4476184511092924</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.984221559824306</v>
+        <v>0.6388587480679462</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6835798567940685</v>
+        <v>0.2635594445772611</v>
       </c>
       <c r="N6">
-        <v>0.7179417056431205</v>
+        <v>1.088161015673265</v>
       </c>
       <c r="O6">
-        <v>1.250178511563831</v>
+        <v>2.01669443218799</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04138467914770416</v>
+        <v>0.01343122800886221</v>
       </c>
       <c r="D7">
-        <v>0.03405038891323642</v>
+        <v>0.01660348951912027</v>
       </c>
       <c r="E7">
-        <v>0.1687181846519721</v>
+        <v>0.1050144962311848</v>
       </c>
       <c r="F7">
-        <v>0.4457530750031751</v>
+        <v>0.6001417935033828</v>
       </c>
       <c r="G7">
-        <v>0.0007887946730083528</v>
+        <v>0.002408674633392417</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3218218767398326</v>
+        <v>0.4483908492402904</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.081748918832886</v>
+        <v>0.6690651449230813</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7185583871079899</v>
+        <v>0.2735590962646697</v>
       </c>
       <c r="N7">
-        <v>0.7130259156411682</v>
+        <v>1.085703554654181</v>
       </c>
       <c r="O7">
-        <v>1.277228373251234</v>
+        <v>2.017107219132726</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04972540567538886</v>
+        <v>0.01609407586656886</v>
       </c>
       <c r="D8">
-        <v>0.03956261588636778</v>
+        <v>0.01848549352083495</v>
       </c>
       <c r="E8">
-        <v>0.2027163046874279</v>
+        <v>0.1125612274958598</v>
       </c>
       <c r="F8">
-        <v>0.5023535270372079</v>
+        <v>0.6070248847405111</v>
       </c>
       <c r="G8">
-        <v>0.0007834769435819625</v>
+        <v>0.002405084258752954</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3608470004016056</v>
+        <v>0.4525616715288052</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.512274121613075</v>
+        <v>0.8020565086169427</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8739410169820161</v>
+        <v>0.3178396617592227</v>
       </c>
       <c r="N8">
-        <v>0.6934034368892981</v>
+        <v>1.075830531046172</v>
       </c>
       <c r="O8">
-        <v>1.404165448692424</v>
+        <v>2.022292390320246</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06610868866162178</v>
+        <v>0.0212707540093362</v>
       </c>
       <c r="D9">
-        <v>0.05030956409105869</v>
+        <v>0.02212333300170854</v>
       </c>
       <c r="E9">
-        <v>0.2736238823891739</v>
+        <v>0.1282186494446265</v>
       </c>
       <c r="F9">
-        <v>0.6231094300176636</v>
+        <v>0.624195624161338</v>
       </c>
       <c r="G9">
-        <v>0.0007736784563548001</v>
+        <v>0.002398754302800782</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4446776658158029</v>
+        <v>0.4634922526956373</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.359136124193071</v>
+        <v>1.061682877641772</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.183832478040003</v>
+        <v>0.4052290159973779</v>
       </c>
       <c r="N9">
-        <v>0.6629338773602669</v>
+        <v>1.059953605942844</v>
       </c>
       <c r="O9">
-        <v>1.684528579053932</v>
+        <v>2.044602706877185</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07819994154924359</v>
+        <v>0.02504586729106961</v>
       </c>
       <c r="D10">
-        <v>0.05817979272752893</v>
+        <v>0.02476287448612879</v>
       </c>
       <c r="E10">
-        <v>0.3291776617723983</v>
+        <v>0.1402639348223857</v>
       </c>
       <c r="F10">
-        <v>0.7191873786705685</v>
+        <v>0.6390667673136221</v>
       </c>
       <c r="G10">
-        <v>0.0007668335177933158</v>
+        <v>0.002394532604013455</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5117632412353075</v>
+        <v>0.4732132270109872</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.98508726491616</v>
+        <v>1.251669171616072</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.416225404376263</v>
+        <v>0.4697819836003987</v>
       </c>
       <c r="N10">
-        <v>0.6460127642389963</v>
+        <v>1.05040764037696</v>
       </c>
       <c r="O10">
-        <v>1.913994668549293</v>
+        <v>2.068452627410295</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08372147779141415</v>
+        <v>0.02675702266263613</v>
       </c>
       <c r="D11">
-        <v>0.06175773058953382</v>
+        <v>0.02595626656133021</v>
       </c>
       <c r="E11">
-        <v>0.3554154707758528</v>
+        <v>0.1458653543728019</v>
       </c>
       <c r="F11">
-        <v>0.7648314076637632</v>
+        <v>0.6463255797945919</v>
       </c>
       <c r="G11">
-        <v>0.0007637893651543351</v>
+        <v>0.002392704248664137</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5437260884098549</v>
+        <v>0.4780054338546975</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.271196548944715</v>
+        <v>1.337924491027138</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.523349704370929</v>
+        <v>0.4992268191999614</v>
       </c>
       <c r="N11">
-        <v>0.6396416580800874</v>
+        <v>1.046524071712767</v>
       </c>
       <c r="O11">
-        <v>2.024522054298927</v>
+        <v>2.080934581418376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08581617399761399</v>
+        <v>0.02740408803884975</v>
       </c>
       <c r="D12">
-        <v>0.06311254443622971</v>
+        <v>0.02640709421983445</v>
       </c>
       <c r="E12">
-        <v>0.3655096033670873</v>
+        <v>0.1480043068697228</v>
       </c>
       <c r="F12">
-        <v>0.7824246801593233</v>
+        <v>0.6491455682997156</v>
       </c>
       <c r="G12">
-        <v>0.0007626460122622703</v>
+        <v>0.002392025073538084</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5560600157970015</v>
+        <v>0.4798735320323857</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.379781563978497</v>
+        <v>1.370561454186941</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.564151527017117</v>
+        <v>0.5103882744894861</v>
       </c>
       <c r="N12">
-        <v>0.6374325676615342</v>
+        <v>1.045119392641936</v>
       </c>
       <c r="O12">
-        <v>2.067352943658761</v>
+        <v>2.085896824399754</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0853648614087632</v>
+        <v>0.0272647719068857</v>
       </c>
       <c r="D13">
-        <v>0.06282076002828774</v>
+        <v>0.0263100490622179</v>
       </c>
       <c r="E13">
-        <v>0.3633282743862694</v>
+        <v>0.1475428483363999</v>
       </c>
       <c r="F13">
-        <v>0.778621410225</v>
+        <v>0.6485350617164869</v>
       </c>
       <c r="G13">
-        <v>0.0007628918459450287</v>
+        <v>0.002392170760687976</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.553393064924812</v>
+        <v>0.4794688261900362</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.356384316782794</v>
+        <v>1.363533683634671</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.55535305082843</v>
+        <v>0.5079839524862138</v>
       </c>
       <c r="N13">
-        <v>0.6378990696976743</v>
+        <v>1.045418983277465</v>
       </c>
       <c r="O13">
-        <v>2.05808354605756</v>
+        <v>2.084817624856299</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08389372875075196</v>
+        <v>0.0268102755470494</v>
       </c>
       <c r="D14">
-        <v>0.06186919188287021</v>
+        <v>0.02599337830627491</v>
       </c>
       <c r="E14">
-        <v>0.3562426274846544</v>
+        <v>0.1460409686126596</v>
       </c>
       <c r="F14">
-        <v>0.7662724449474041</v>
+        <v>0.6465561530700938</v>
       </c>
       <c r="G14">
-        <v>0.0007636951160836816</v>
+        <v>0.002392648108565583</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5447360576913809</v>
+        <v>0.4781580523292135</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.280124783291967</v>
+        <v>1.340610084662558</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.52670155753087</v>
+        <v>0.5001448521141896</v>
       </c>
       <c r="N14">
-        <v>0.6394557595664097</v>
+        <v>1.046407186572694</v>
       </c>
       <c r="O14">
-        <v>2.028025644305785</v>
+        <v>2.081338101563802</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08299313745314407</v>
+        <v>0.02653176386233724</v>
       </c>
       <c r="D15">
-        <v>0.0612863272390598</v>
+        <v>0.02579926634326313</v>
       </c>
       <c r="E15">
-        <v>0.3519237080455682</v>
+        <v>0.1451233524394766</v>
       </c>
       <c r="F15">
-        <v>0.7587495087022091</v>
+        <v>0.6453532975767757</v>
       </c>
       <c r="G15">
-        <v>0.0007641883477758626</v>
+        <v>0.002392942212847665</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5394640782471498</v>
+        <v>0.4773621240906962</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.233446516999493</v>
+        <v>1.32656527939821</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.50918350042285</v>
+        <v>0.4953446506573869</v>
       </c>
       <c r="N15">
-        <v>0.6404361759070767</v>
+        <v>1.047021076084881</v>
       </c>
       <c r="O15">
-        <v>2.009744386308171</v>
+        <v>2.079237499949983</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07783958633210375</v>
+        <v>0.02493391304534498</v>
       </c>
       <c r="D16">
-        <v>0.05794594148844823</v>
+        <v>0.02468473329953014</v>
       </c>
       <c r="E16">
-        <v>0.3274840282464382</v>
+        <v>0.1399003468335565</v>
       </c>
       <c r="F16">
-        <v>0.7162459564950865</v>
+        <v>0.6386023431281842</v>
       </c>
       <c r="G16">
-        <v>0.000767033810367254</v>
+        <v>0.002394653939720448</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5097053571550134</v>
+        <v>0.472907507125484</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.966420573197581</v>
+        <v>1.246028622059782</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.409255723429951</v>
+        <v>0.4678592847410386</v>
       </c>
       <c r="N16">
-        <v>0.6464568914369195</v>
+        <v>1.050670671275036</v>
       </c>
       <c r="O16">
-        <v>1.906902851359405</v>
+        <v>2.067669824860303</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0746839985222465</v>
+        <v>0.02395208654687053</v>
       </c>
       <c r="D17">
-        <v>0.05589631443432097</v>
+        <v>0.023999101768581</v>
       </c>
       <c r="E17">
-        <v>0.3127518598719305</v>
+        <v>0.136727636893859</v>
       </c>
       <c r="F17">
-        <v>0.6906884756524079</v>
+        <v>0.6345874947461709</v>
       </c>
       <c r="G17">
-        <v>0.000768796824826887</v>
+        <v>0.002395727577269957</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.491834955412628</v>
+        <v>0.470269657025959</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.80298883385683</v>
+        <v>1.196577242791989</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.348336898432208</v>
+        <v>0.4510181751292208</v>
       </c>
       <c r="N17">
-        <v>0.6504989135501233</v>
+        <v>1.053027087027544</v>
       </c>
       <c r="O17">
-        <v>1.845450175399804</v>
+        <v>2.06099215680041</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07287093084053708</v>
+        <v>0.02338678740863998</v>
       </c>
       <c r="D18">
-        <v>0.0547171931394459</v>
+        <v>0.02360405458894377</v>
       </c>
       <c r="E18">
-        <v>0.3043679728011455</v>
+        <v>0.1349142406759682</v>
       </c>
       <c r="F18">
-        <v>0.6761689295005056</v>
+        <v>0.6323247311246121</v>
       </c>
       <c r="G18">
-        <v>0.0007698174585917768</v>
+        <v>0.002396353779288327</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4816909653732111</v>
+        <v>0.468787259293272</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.709112343689299</v>
+        <v>1.168118171039509</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.313428301681114</v>
+        <v>0.4413390892936775</v>
       </c>
       <c r="N18">
-        <v>0.6529478032572555</v>
+        <v>1.054425635203863</v>
       </c>
       <c r="O18">
-        <v>1.810676339575934</v>
+        <v>2.057304947416014</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07225736852443276</v>
+        <v>0.02319528826116368</v>
       </c>
       <c r="D19">
-        <v>0.05431791610289594</v>
+        <v>0.02347018071642992</v>
       </c>
       <c r="E19">
-        <v>0.3015441667941232</v>
+        <v>0.1343022161031513</v>
       </c>
       <c r="F19">
-        <v>0.6712829680991774</v>
+        <v>0.6315665730210611</v>
       </c>
       <c r="G19">
-        <v>0.0007701641782270049</v>
+        <v>0.002396567292309009</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4782788448004496</v>
+        <v>0.4682913205736696</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.677347531521377</v>
+        <v>1.158479726892324</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.301630248353348</v>
+        <v>0.4380632033579275</v>
       </c>
       <c r="N19">
-        <v>0.6537978831646925</v>
+        <v>1.05490658090099</v>
       </c>
       <c r="O19">
-        <v>1.798998052284958</v>
+        <v>2.056082878331154</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0750197097656411</v>
+        <v>0.02405666371463155</v>
       </c>
       <c r="D20">
-        <v>0.05611452278406404</v>
+        <v>0.02407216003265944</v>
       </c>
       <c r="E20">
-        <v>0.3143107084350021</v>
+        <v>0.1370641889273685</v>
       </c>
       <c r="F20">
-        <v>0.6933902266088268</v>
+        <v>0.6350100710549782</v>
       </c>
       <c r="G20">
-        <v>0.0007686084707120575</v>
+        <v>0.002395612389535645</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.493723203229365</v>
+        <v>0.4705468552583696</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.820373151507283</v>
+        <v>1.201843088175337</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.354808090520649</v>
+        <v>0.4528101669332898</v>
       </c>
       <c r="N20">
-        <v>0.6500557077741931</v>
+        <v>1.052771771876948</v>
       </c>
       <c r="O20">
-        <v>1.851932052780683</v>
+        <v>2.061687101909484</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08432572627035029</v>
+        <v>0.02694379710345629</v>
       </c>
       <c r="D21">
-        <v>0.06214869037877691</v>
+        <v>0.02608642182050858</v>
       </c>
       <c r="E21">
-        <v>0.3583193891342518</v>
+        <v>0.1464816213328106</v>
       </c>
       <c r="F21">
-        <v>0.7698910000279255</v>
+        <v>0.6471354715122857</v>
       </c>
       <c r="G21">
-        <v>0.0007634589261559244</v>
+        <v>0.002392507542567225</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5472723927182699</v>
+        <v>0.4785416079077933</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.302517112834551</v>
+        <v>1.347344020799596</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.535110501978167</v>
+        <v>0.5024470789004027</v>
       </c>
       <c r="N21">
-        <v>0.6389928921256782</v>
+        <v>1.046115137982319</v>
       </c>
       <c r="O21">
-        <v>2.03682709403364</v>
+        <v>2.082353721108205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09043035262048704</v>
+        <v>0.02882537767685278</v>
       </c>
       <c r="D22">
-        <v>0.06609207351075241</v>
+        <v>0.02739652723627017</v>
       </c>
       <c r="E22">
-        <v>0.3880155259795046</v>
+        <v>0.1527404358821016</v>
       </c>
       <c r="F22">
-        <v>0.8217047844991043</v>
+        <v>0.6554754270235321</v>
       </c>
       <c r="G22">
-        <v>0.0007601478827824391</v>
+        <v>0.002390555161461425</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.583623925538717</v>
+        <v>0.484077939802134</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.619058784221238</v>
+        <v>1.442284710790659</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.654343033279574</v>
+        <v>0.5349537044084371</v>
       </c>
       <c r="N22">
-        <v>0.6329555612885969</v>
+        <v>1.042148996122748</v>
       </c>
       <c r="O22">
-        <v>2.16340767798755</v>
+        <v>2.097234187724865</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08716986174786712</v>
+        <v>0.02782163877198229</v>
       </c>
       <c r="D23">
-        <v>0.06398735288645696</v>
+        <v>0.02669788761167524</v>
       </c>
       <c r="E23">
-        <v>0.3720737572876018</v>
+        <v>0.1493903824007248</v>
       </c>
       <c r="F23">
-        <v>0.7938739988664025</v>
+        <v>0.6509861635437062</v>
       </c>
       <c r="G23">
-        <v>0.0007619102785470786</v>
+        <v>0.002391590175910581</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.564090640913868</v>
+        <v>0.4810945536052742</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.449967201954792</v>
+        <v>1.391627550053215</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.590566841935825</v>
+        <v>0.5175982899231286</v>
       </c>
       <c r="N23">
-        <v>0.6360641696761178</v>
+        <v>1.04423064761275</v>
       </c>
       <c r="O23">
-        <v>2.095291118812526</v>
+        <v>2.089166235800349</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07486793127553426</v>
+        <v>0.02400938697346078</v>
       </c>
       <c r="D24">
-        <v>0.05601587318562906</v>
+        <v>0.02403913309494499</v>
       </c>
       <c r="E24">
-        <v>0.3136056871032835</v>
+        <v>0.1369120006429867</v>
       </c>
       <c r="F24">
-        <v>0.6921682259417139</v>
+        <v>0.6348188828215484</v>
       </c>
       <c r="G24">
-        <v>0.0007686936035306103</v>
+        <v>0.002395664437921762</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4928691233282265</v>
+        <v>0.4704214276139496</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.812513447659512</v>
+        <v>1.199462489118162</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.351882110616145</v>
+        <v>0.4519999978046627</v>
       </c>
       <c r="N24">
-        <v>0.6502556924719443</v>
+        <v>1.052887063372452</v>
       </c>
       <c r="O24">
-        <v>1.84899987077614</v>
+        <v>2.061372444214385</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06166990726374166</v>
+        <v>0.01987522836559918</v>
       </c>
       <c r="D25">
-        <v>0.04740769025440272</v>
+        <v>0.02114495490579316</v>
       </c>
       <c r="E25">
-        <v>0.2539018614029871</v>
+        <v>0.123889101592674</v>
       </c>
       <c r="F25">
-        <v>0.5892572367762057</v>
+        <v>0.619155540592736</v>
       </c>
       <c r="G25">
-        <v>0.0007762647712042731</v>
+        <v>0.002400391086528455</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4211141430515042</v>
+        <v>0.4602393351252019</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.129544534804381</v>
+        <v>0.9915772675136907</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.09929028214178</v>
+        <v>0.3815274550801036</v>
       </c>
       <c r="N25">
-        <v>0.6702616919464006</v>
+        <v>1.063876299924999</v>
       </c>
       <c r="O25">
-        <v>1.60488981499654</v>
+        <v>2.03726144413352</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_248/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01681254295004209</v>
+        <v>0.05198584108295989</v>
       </c>
       <c r="D2">
-        <v>0.01899188952842934</v>
+        <v>0.04105149403907404</v>
       </c>
       <c r="E2">
-        <v>0.1146634113283724</v>
+        <v>0.2121848307913083</v>
       </c>
       <c r="F2">
-        <v>0.6091378076441956</v>
+        <v>0.5183012219194936</v>
       </c>
       <c r="G2">
-        <v>0.00240415971103272</v>
+        <v>0.000782079752810442</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4538774918128325</v>
+        <v>0.3718788230077763</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8380131953018974</v>
+        <v>2.629026220966153</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3298747082999256</v>
+        <v>0.9163394301441556</v>
       </c>
       <c r="N2">
-        <v>1.07339142281571</v>
+        <v>0.6886086906597129</v>
       </c>
       <c r="O2">
-        <v>2.024516934344973</v>
+        <v>1.440536965326316</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0147254155090053</v>
+        <v>0.04543113433856405</v>
       </c>
       <c r="D3">
-        <v>0.01751924932826654</v>
+        <v>0.03672834058533425</v>
       </c>
       <c r="E3">
-        <v>0.1086312128689926</v>
+        <v>0.1850228942780134</v>
       </c>
       <c r="F3">
-        <v>0.6032880531546496</v>
+        <v>0.4727534275643706</v>
       </c>
       <c r="G3">
-        <v>0.002406895151447619</v>
+        <v>0.0007861804640367293</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4502697176569157</v>
+        <v>0.3404109825119335</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7336431570084301</v>
+        <v>2.290559765483692</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2950121864063036</v>
+        <v>0.7937277240808527</v>
       </c>
       <c r="N3">
-        <v>1.080729859088088</v>
+        <v>0.7031071942362104</v>
       </c>
       <c r="O3">
-        <v>2.018984902989047</v>
+        <v>1.337324639123608</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01343831474956403</v>
+        <v>0.04140679951937187</v>
       </c>
       <c r="D4">
-        <v>0.0166085100554838</v>
+        <v>0.03406504805191446</v>
       </c>
       <c r="E4">
-        <v>0.1050340148368463</v>
+        <v>0.1688063111665556</v>
       </c>
       <c r="F4">
-        <v>0.6001579022374557</v>
+        <v>0.4458981890157077</v>
       </c>
       <c r="G4">
-        <v>0.002408664694095223</v>
+        <v>0.0007887801877411227</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4484003038367916</v>
+        <v>0.3219216347966096</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.669418434303708</v>
+        <v>2.082890103935284</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2736761886250108</v>
+        <v>0.7189681763809617</v>
       </c>
       <c r="N4">
-        <v>1.085675331145673</v>
+        <v>0.7129695023443219</v>
       </c>
       <c r="O4">
-        <v>2.017113887164697</v>
+        <v>1.277548844875355</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01291242623318567</v>
+        <v>0.03976641688738169</v>
       </c>
       <c r="D5">
-        <v>0.01623575885282236</v>
+        <v>0.03297736025989906</v>
       </c>
       <c r="E5">
-        <v>0.1035946732239452</v>
+        <v>0.1623019011282025</v>
       </c>
       <c r="F5">
-        <v>0.5989982290491795</v>
+        <v>0.4352142461686697</v>
       </c>
       <c r="G5">
-        <v>0.002409408489591541</v>
+        <v>0.0007898606006391867</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4477252976266541</v>
+        <v>0.3145817198452434</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6432122760965058</v>
+        <v>1.99827247445333</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2649991893264598</v>
+        <v>0.6886140256549851</v>
       </c>
       <c r="N5">
-        <v>1.087801311374797</v>
+        <v>0.7172217607694975</v>
       </c>
       <c r="O5">
-        <v>2.016734348431726</v>
+        <v>1.254033873934731</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01282501989250306</v>
+        <v>0.03949399220849159</v>
       </c>
       <c r="D6">
-        <v>0.0161737668409927</v>
+        <v>0.03279660306780841</v>
       </c>
       <c r="E6">
-        <v>0.1033572673889651</v>
+        <v>0.1612277938061553</v>
       </c>
       <c r="F6">
-        <v>0.5988126600442953</v>
+        <v>0.4334553205992222</v>
       </c>
       <c r="G6">
-        <v>0.002409533368718176</v>
+        <v>0.0007900412827639332</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4476184511092924</v>
+        <v>0.3133742768413867</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6388587480679462</v>
+        <v>1.984221559824363</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2635594445772611</v>
+        <v>0.6835798567940756</v>
       </c>
       <c r="N6">
-        <v>1.088161015673265</v>
+        <v>0.7179417056431134</v>
       </c>
       <c r="O6">
-        <v>2.01669443218799</v>
+        <v>1.250178511563746</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01343122800886221</v>
+        <v>0.04138467914780364</v>
       </c>
       <c r="D7">
-        <v>0.01660348951912027</v>
+        <v>0.034050388913478</v>
       </c>
       <c r="E7">
-        <v>0.1050144962311848</v>
+        <v>0.1687181846519792</v>
       </c>
       <c r="F7">
-        <v>0.6001417935033828</v>
+        <v>0.4457530750031822</v>
       </c>
       <c r="G7">
-        <v>0.002408674633392417</v>
+        <v>0.0007887946730097277</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4483908492402904</v>
+        <v>0.3218218767398326</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6690651449230813</v>
+        <v>2.081748918832858</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2735590962646697</v>
+        <v>0.7185583871079757</v>
       </c>
       <c r="N7">
-        <v>1.085703554654181</v>
+        <v>0.7130259156411753</v>
       </c>
       <c r="O7">
-        <v>2.017107219132726</v>
+        <v>1.277228373251234</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01609407586656886</v>
+        <v>0.04972540567538886</v>
       </c>
       <c r="D8">
-        <v>0.01848549352083495</v>
+        <v>0.03956261588637489</v>
       </c>
       <c r="E8">
-        <v>0.1125612274958598</v>
+        <v>0.202716304687435</v>
       </c>
       <c r="F8">
-        <v>0.6070248847405111</v>
+        <v>0.5023535270372079</v>
       </c>
       <c r="G8">
-        <v>0.002405084258752954</v>
+        <v>0.0007834769436105264</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4525616715288052</v>
+        <v>0.3608470004015842</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8020565086169427</v>
+        <v>2.51227412161316</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3178396617592227</v>
+        <v>0.8739410169820303</v>
       </c>
       <c r="N8">
-        <v>1.075830531046172</v>
+        <v>0.693403436889291</v>
       </c>
       <c r="O8">
-        <v>2.022292390320246</v>
+        <v>1.404165448692481</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0212707540093362</v>
+        <v>0.06610868866150099</v>
       </c>
       <c r="D9">
-        <v>0.02212333300170854</v>
+        <v>0.05030956409127896</v>
       </c>
       <c r="E9">
-        <v>0.1282186494446265</v>
+        <v>0.2736238823891597</v>
       </c>
       <c r="F9">
-        <v>0.624195624161338</v>
+        <v>0.6231094300176778</v>
       </c>
       <c r="G9">
-        <v>0.002398754302800782</v>
+        <v>0.0007736784563537728</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4634922526956373</v>
+        <v>0.44467766581581</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.061682877641772</v>
+        <v>3.359136124193071</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4052290159973779</v>
+        <v>1.183832478040003</v>
       </c>
       <c r="N9">
-        <v>1.059953605942844</v>
+        <v>0.6629338773603237</v>
       </c>
       <c r="O9">
-        <v>2.044602706877185</v>
+        <v>1.684528579053932</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02504586729106961</v>
+        <v>0.07819994154924359</v>
       </c>
       <c r="D10">
-        <v>0.02476287448612879</v>
+        <v>0.05817979272758578</v>
       </c>
       <c r="E10">
-        <v>0.1402639348223857</v>
+        <v>0.3291776617724054</v>
       </c>
       <c r="F10">
-        <v>0.6390667673136221</v>
+        <v>0.7191873786705543</v>
       </c>
       <c r="G10">
-        <v>0.002394532604013455</v>
+        <v>0.0007668335178222846</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4732132270109872</v>
+        <v>0.5117632412353075</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.251669171616072</v>
+        <v>3.985087264916217</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4697819836003987</v>
+        <v>1.416225404376277</v>
       </c>
       <c r="N10">
-        <v>1.05040764037696</v>
+        <v>0.6460127642390034</v>
       </c>
       <c r="O10">
-        <v>2.068452627410295</v>
+        <v>1.913994668549293</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02675702266263613</v>
+        <v>0.08372147779130046</v>
       </c>
       <c r="D11">
-        <v>0.02595626656133021</v>
+        <v>0.06175773058953382</v>
       </c>
       <c r="E11">
-        <v>0.1458653543728019</v>
+        <v>0.355415470775867</v>
       </c>
       <c r="F11">
-        <v>0.6463255797945919</v>
+        <v>0.7648314076637774</v>
       </c>
       <c r="G11">
-        <v>0.002392704248664137</v>
+        <v>0.0007637893651830669</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4780054338546975</v>
+        <v>0.543726088409862</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.337924491027138</v>
+        <v>4.271196548944772</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4992268191999614</v>
+        <v>1.523349704370887</v>
       </c>
       <c r="N11">
-        <v>1.046524071712767</v>
+        <v>0.6396416580801016</v>
       </c>
       <c r="O11">
-        <v>2.080934581418376</v>
+        <v>2.024522054298814</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02740408803884975</v>
+        <v>0.08581617399759978</v>
       </c>
       <c r="D12">
-        <v>0.02640709421983445</v>
+        <v>0.06311254443622971</v>
       </c>
       <c r="E12">
-        <v>0.1480043068697228</v>
+        <v>0.3655096033671015</v>
       </c>
       <c r="F12">
-        <v>0.6491455682997156</v>
+        <v>0.7824246801593233</v>
       </c>
       <c r="G12">
-        <v>0.002392025073538084</v>
+        <v>0.0007626460122909802</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4798735320323857</v>
+        <v>0.5560600157970086</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.370561454186941</v>
+        <v>4.379781563978554</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5103882744894861</v>
+        <v>1.564151527017103</v>
       </c>
       <c r="N12">
-        <v>1.045119392641936</v>
+        <v>0.6374325676615769</v>
       </c>
       <c r="O12">
-        <v>2.085896824399754</v>
+        <v>2.067352943658761</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0272647719068857</v>
+        <v>0.08536486140863531</v>
       </c>
       <c r="D13">
-        <v>0.0263100490622179</v>
+        <v>0.06282076002817405</v>
       </c>
       <c r="E13">
-        <v>0.1475428483363999</v>
+        <v>0.3633282743862836</v>
       </c>
       <c r="F13">
-        <v>0.6485350617164869</v>
+        <v>0.7786214102249858</v>
       </c>
       <c r="G13">
-        <v>0.002392170760687976</v>
+        <v>0.0007628918459169304</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4794688261900362</v>
+        <v>0.5533930649248404</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.363533683634671</v>
+        <v>4.356384316782908</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5079839524862138</v>
+        <v>1.55535305082843</v>
       </c>
       <c r="N13">
-        <v>1.045418983277465</v>
+        <v>0.6378990696976103</v>
       </c>
       <c r="O13">
-        <v>2.084817624856299</v>
+        <v>2.05808354605756</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0268102755470494</v>
+        <v>0.08389372875075196</v>
       </c>
       <c r="D14">
-        <v>0.02599337830627491</v>
+        <v>0.06186919188287732</v>
       </c>
       <c r="E14">
-        <v>0.1460409686126596</v>
+        <v>0.3562426274846331</v>
       </c>
       <c r="F14">
-        <v>0.6465561530700938</v>
+        <v>0.7662724449473899</v>
       </c>
       <c r="G14">
-        <v>0.002392648108565583</v>
+        <v>0.0007636951161122823</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4781580523292135</v>
+        <v>0.5447360576913809</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.340610084662558</v>
+        <v>4.280124783291967</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5001448521141896</v>
+        <v>1.526701557530885</v>
       </c>
       <c r="N14">
-        <v>1.046407186572694</v>
+        <v>0.6394557595663386</v>
       </c>
       <c r="O14">
-        <v>2.081338101563802</v>
+        <v>2.028025644305728</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02653176386233724</v>
+        <v>0.08299313745315828</v>
       </c>
       <c r="D15">
-        <v>0.02579926634326313</v>
+        <v>0.0612863272390598</v>
       </c>
       <c r="E15">
-        <v>0.1451233524394766</v>
+        <v>0.351923708045554</v>
       </c>
       <c r="F15">
-        <v>0.6453532975767757</v>
+        <v>0.7587495087022091</v>
       </c>
       <c r="G15">
-        <v>0.002392942212847665</v>
+        <v>0.000764188347747885</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4773621240906962</v>
+        <v>0.5394640782471498</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.32656527939821</v>
+        <v>4.23344651699955</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4953446506573869</v>
+        <v>1.509183500422836</v>
       </c>
       <c r="N15">
-        <v>1.047021076084881</v>
+        <v>0.6404361759070625</v>
       </c>
       <c r="O15">
-        <v>2.079237499949983</v>
+        <v>2.009744386308142</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02493391304534498</v>
+        <v>0.07783958633223165</v>
       </c>
       <c r="D16">
-        <v>0.02468473329953014</v>
+        <v>0.05794594148816401</v>
       </c>
       <c r="E16">
-        <v>0.1399003468335565</v>
+        <v>0.3274840282464453</v>
       </c>
       <c r="F16">
-        <v>0.6386023431281842</v>
+        <v>0.7162459564950865</v>
       </c>
       <c r="G16">
-        <v>0.002394653939720448</v>
+        <v>0.0007670338103955525</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.472907507125484</v>
+        <v>0.5097053571550276</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.246028622059782</v>
+        <v>3.966420573197468</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4678592847410386</v>
+        <v>1.409255723429922</v>
       </c>
       <c r="N16">
-        <v>1.050670671275036</v>
+        <v>0.6464568914368485</v>
       </c>
       <c r="O16">
-        <v>2.067669824860303</v>
+        <v>1.906902851359462</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02395208654687053</v>
+        <v>0.07468399852213281</v>
       </c>
       <c r="D17">
-        <v>0.023999101768581</v>
+        <v>0.05589631443425702</v>
       </c>
       <c r="E17">
-        <v>0.136727636893859</v>
+        <v>0.3127518598719092</v>
       </c>
       <c r="F17">
-        <v>0.6345874947461709</v>
+        <v>0.6906884756524221</v>
       </c>
       <c r="G17">
-        <v>0.002395727577269957</v>
+        <v>0.0007687968247976156</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.470269657025959</v>
+        <v>0.4918349554126422</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.196577242791989</v>
+        <v>3.802988833856659</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4510181751292208</v>
+        <v>1.348336898432208</v>
       </c>
       <c r="N17">
-        <v>1.053027087027544</v>
+        <v>0.6504989135501162</v>
       </c>
       <c r="O17">
-        <v>2.06099215680041</v>
+        <v>1.845450175399833</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02338678740863998</v>
+        <v>0.07287093084052287</v>
       </c>
       <c r="D18">
-        <v>0.02360405458894377</v>
+        <v>0.0547171931394459</v>
       </c>
       <c r="E18">
-        <v>0.1349142406759682</v>
+        <v>0.304367972801117</v>
       </c>
       <c r="F18">
-        <v>0.6323247311246121</v>
+        <v>0.6761689295005056</v>
       </c>
       <c r="G18">
-        <v>0.002396353779288327</v>
+        <v>0.0007698174585922764</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.468787259293272</v>
+        <v>0.4816909653732324</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.168118171039509</v>
+        <v>3.709112343689412</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4413390892936775</v>
+        <v>1.313428301681114</v>
       </c>
       <c r="N18">
-        <v>1.054425635203863</v>
+        <v>0.6529478032572555</v>
       </c>
       <c r="O18">
-        <v>2.057304947416014</v>
+        <v>1.810676339575991</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02319528826116368</v>
+        <v>0.07225736852477382</v>
       </c>
       <c r="D19">
-        <v>0.02347018071642992</v>
+        <v>0.05431791610277514</v>
       </c>
       <c r="E19">
-        <v>0.1343022161031513</v>
+        <v>0.3015441667941374</v>
       </c>
       <c r="F19">
-        <v>0.6315665730210611</v>
+        <v>0.6712829680991774</v>
       </c>
       <c r="G19">
-        <v>0.002396567292309009</v>
+        <v>0.000770164178227644</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4682913205736696</v>
+        <v>0.478278844800414</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.158479726892324</v>
+        <v>3.677347531521491</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4380632033579275</v>
+        <v>1.30163024835332</v>
       </c>
       <c r="N19">
-        <v>1.05490658090099</v>
+        <v>0.6537978831646925</v>
       </c>
       <c r="O19">
-        <v>2.056082878331154</v>
+        <v>1.798998052284958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02405666371463155</v>
+        <v>0.07501970976552741</v>
       </c>
       <c r="D20">
-        <v>0.02407216003265944</v>
+        <v>0.05611452278417772</v>
       </c>
       <c r="E20">
-        <v>0.1370641889273685</v>
+        <v>0.3143107084349879</v>
       </c>
       <c r="F20">
-        <v>0.6350100710549782</v>
+        <v>0.6933902266088268</v>
       </c>
       <c r="G20">
-        <v>0.002395612389535645</v>
+        <v>0.0007686084707385397</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4705468552583696</v>
+        <v>0.493723203229365</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.201843088175337</v>
+        <v>3.820373151507454</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4528101669332898</v>
+        <v>1.354808090520663</v>
       </c>
       <c r="N20">
-        <v>1.052771771876948</v>
+        <v>0.6500557077741718</v>
       </c>
       <c r="O20">
-        <v>2.061687101909484</v>
+        <v>1.851932052780739</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02694379710345629</v>
+        <v>0.08432572627035029</v>
       </c>
       <c r="D21">
-        <v>0.02608642182050858</v>
+        <v>0.06214869037877691</v>
       </c>
       <c r="E21">
-        <v>0.1464816213328106</v>
+        <v>0.3583193891342376</v>
       </c>
       <c r="F21">
-        <v>0.6471354715122857</v>
+        <v>0.7698910000279113</v>
       </c>
       <c r="G21">
-        <v>0.002392507542567225</v>
+        <v>0.000763458926155968</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4785416079077933</v>
+        <v>0.5472723927182628</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.347344020799596</v>
+        <v>4.302517112834494</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5024470789004027</v>
+        <v>1.535110501978153</v>
       </c>
       <c r="N21">
-        <v>1.046115137982319</v>
+        <v>0.6389928921256356</v>
       </c>
       <c r="O21">
-        <v>2.082353721108205</v>
+        <v>2.036827094033612</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02882537767685278</v>
+        <v>0.09043035262061494</v>
       </c>
       <c r="D22">
-        <v>0.02739652723627017</v>
+        <v>0.06609207351087321</v>
       </c>
       <c r="E22">
-        <v>0.1527404358821016</v>
+        <v>0.3880155259795188</v>
       </c>
       <c r="F22">
-        <v>0.6554754270235321</v>
+        <v>0.8217047844990901</v>
       </c>
       <c r="G22">
-        <v>0.002390555161461425</v>
+        <v>0.0007601478827835553</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.484077939802134</v>
+        <v>0.5836239255387099</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.442284710790659</v>
+        <v>4.619058784221352</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5349537044084371</v>
+        <v>1.654343033279588</v>
       </c>
       <c r="N22">
-        <v>1.042148996122748</v>
+        <v>0.6329555612885969</v>
       </c>
       <c r="O22">
-        <v>2.097234187724865</v>
+        <v>2.163407677987465</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02782163877198229</v>
+        <v>0.08716986174786712</v>
       </c>
       <c r="D23">
-        <v>0.02669788761167524</v>
+        <v>0.06398735288634327</v>
       </c>
       <c r="E23">
-        <v>0.1493903824007248</v>
+        <v>0.3720737572876018</v>
       </c>
       <c r="F23">
-        <v>0.6509861635437062</v>
+        <v>0.7938739988664025</v>
       </c>
       <c r="G23">
-        <v>0.002391590175910581</v>
+        <v>0.0007619102785187522</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4810945536052742</v>
+        <v>0.5640906409138537</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.391627550053215</v>
+        <v>4.449967201954792</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5175982899231286</v>
+        <v>1.590566841935811</v>
       </c>
       <c r="N23">
-        <v>1.04423064761275</v>
+        <v>0.6360641696761178</v>
       </c>
       <c r="O23">
-        <v>2.089166235800349</v>
+        <v>2.095291118812554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02400938697346078</v>
+        <v>0.07486793127553426</v>
       </c>
       <c r="D24">
-        <v>0.02403913309494499</v>
+        <v>0.05601587318574985</v>
       </c>
       <c r="E24">
-        <v>0.1369120006429867</v>
+        <v>0.3136056871032409</v>
       </c>
       <c r="F24">
-        <v>0.6348188828215484</v>
+        <v>0.6921682259416997</v>
       </c>
       <c r="G24">
-        <v>0.002395664437921762</v>
+        <v>0.0007686936035880839</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4704214276139496</v>
+        <v>0.4928691233282194</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.199462489118162</v>
+        <v>3.812513447659455</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4519999978046627</v>
+        <v>1.351882110616117</v>
       </c>
       <c r="N24">
-        <v>1.052887063372452</v>
+        <v>0.6502556924719443</v>
       </c>
       <c r="O24">
-        <v>2.061372444214385</v>
+        <v>1.848999870776026</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01987522836559918</v>
+        <v>0.06166990726362798</v>
       </c>
       <c r="D25">
-        <v>0.02114495490579316</v>
+        <v>0.04740769025433167</v>
       </c>
       <c r="E25">
-        <v>0.123889101592674</v>
+        <v>0.2539018614029871</v>
       </c>
       <c r="F25">
-        <v>0.619155540592736</v>
+        <v>0.5892572367761915</v>
       </c>
       <c r="G25">
-        <v>0.002400391086528455</v>
+        <v>0.000776264771228927</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4602393351252019</v>
+        <v>0.4211141430515042</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9915772675136907</v>
+        <v>3.129544534804353</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3815274550801036</v>
+        <v>1.09929028214178</v>
       </c>
       <c r="N25">
-        <v>1.063876299924999</v>
+        <v>0.6702616919464006</v>
       </c>
       <c r="O25">
-        <v>2.03726144413352</v>
+        <v>1.604889814996511</v>
       </c>
     </row>
   </sheetData>
